--- a/Modellering/Data/Pristabel.xlsx
+++ b/Modellering/Data/Pristabel.xlsx
@@ -1,21 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="26311"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="26915"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Simon/Dropbox/Emilie_Laurizen_Simon_Bjerg_Organdonationer/Modellering/Data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/emilienordbylauritzen/Dropbox/Emilie_Laurizen_Simon_Bjerg_Organdonationer/GitHub/Modellering/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="20460" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15460" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
   </sheets>
   <calcPr calcId="150000" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
@@ -119,7 +122,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="2">
     <numFmt numFmtId="43" formatCode="_-* #,##0.00\ _k_r_._-;\-* #,##0.00\ _k_r_._-;_-* &quot;-&quot;??\ _k_r_._-;_-@_-"/>
-    <numFmt numFmtId="165" formatCode="_-* #,##0\ _k_r_._-;\-* #,##0\ _k_r_._-;_-* &quot;-&quot;??\ _k_r_._-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="_-* #,##0\ _k_r_._-;\-* #,##0\ _k_r_._-;_-* &quot;-&quot;??\ _k_r_._-;_-@_-"/>
   </numFmts>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
@@ -199,14 +202,14 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
-    <cellStyle name="Comma" xfId="2" builtinId="3"/>
+    <cellStyle name="Komma" xfId="2" builtinId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Percent" xfId="1" builtinId="5"/>
+    <cellStyle name="Procent" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
@@ -484,7 +487,7 @@
   <dimension ref="A1:E28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -669,7 +672,7 @@
         <v>1</v>
       </c>
       <c r="E10" s="3">
-        <v>1</v>
+        <v>0.63</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
@@ -687,7 +690,7 @@
         <v>1</v>
       </c>
       <c r="E11" s="3">
-        <v>1</v>
+        <v>0.37</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
@@ -704,7 +707,7 @@
         <v>1</v>
       </c>
       <c r="E12" s="3">
-        <v>1</v>
+        <v>0.11</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
@@ -721,7 +724,7 @@
         <v>1</v>
       </c>
       <c r="E13" s="3">
-        <v>1</v>
+        <v>0.89</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
